--- a/data/trans_orig/Q4505_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4505_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>325681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>299469</v>
+        <v>297859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>354314</v>
+        <v>355386</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3159411348538987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2905136003427886</v>
+        <v>0.288951925635817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3437185301845034</v>
+        <v>0.3447580914419132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>420</v>
@@ -764,19 +764,19 @@
         <v>434217</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>400838</v>
+        <v>400141</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>472053</v>
+        <v>468983</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3306289043476536</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3052126014591783</v>
+        <v>0.3046823134984475</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3594385611881331</v>
+        <v>0.3571007942148652</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>751</v>
@@ -785,19 +785,19 @@
         <v>759898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>718236</v>
+        <v>717318</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>806737</v>
+        <v>804830</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3241699952169773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.306397307743932</v>
+        <v>0.3060054933154685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3441513068108635</v>
+        <v>0.3433380294687214</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>216150</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>190449</v>
+        <v>189440</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>241528</v>
+        <v>242292</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2096856906879854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1847531632617521</v>
+        <v>0.1837750951495788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.234305022635016</v>
+        <v>0.2350459348421404</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -835,19 +835,19 @@
         <v>289867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>260020</v>
+        <v>261563</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318643</v>
+        <v>320819</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2207152165989196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1979888608475107</v>
+        <v>0.1991640077760691</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2426265461671286</v>
+        <v>0.2442832142750579</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>503</v>
@@ -856,19 +856,19 @@
         <v>506017</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>471264</v>
+        <v>462525</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545221</v>
+        <v>543874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.215865010742717</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2010397815400985</v>
+        <v>0.1973115827801222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.232589463042799</v>
+        <v>0.2320150503486717</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>301957</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>274063</v>
+        <v>275240</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>332786</v>
+        <v>330317</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.292926728335217</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2658668283002076</v>
+        <v>0.2670088781366263</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3228343186021613</v>
+        <v>0.3204391928205548</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>397</v>
@@ -906,19 +906,19 @@
         <v>401102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>367096</v>
+        <v>367641</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>433941</v>
+        <v>434302</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.305413995624655</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2795203815227899</v>
+        <v>0.2799349462373767</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.330418359557229</v>
+        <v>0.3306932346704272</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>699</v>
@@ -927,19 +927,19 @@
         <v>703059</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>661052</v>
+        <v>656551</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>749108</v>
+        <v>744349</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.299922751719497</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2820026043529036</v>
+        <v>0.2800824334968651</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3195670565713881</v>
+        <v>0.3175370875222022</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>55873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41185</v>
+        <v>41626</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72086</v>
+        <v>70253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05420236343705678</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03995304577289411</v>
+        <v>0.0403812949396383</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0699302982688281</v>
+        <v>0.06815161129630934</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -977,19 +977,19 @@
         <v>46907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34162</v>
+        <v>34720</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60101</v>
+        <v>61245</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03571668844148681</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02601219227439824</v>
+        <v>0.02643697467955658</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0457632168581544</v>
+        <v>0.04663443438397831</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -998,19 +998,19 @@
         <v>102780</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83443</v>
+        <v>84769</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125623</v>
+        <v>123711</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04384571681889764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03559667524744351</v>
+        <v>0.03616208966722885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05359037539500909</v>
+        <v>0.05277450844187746</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>131167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110096</v>
+        <v>111631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>152239</v>
+        <v>153383</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.127244082685842</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1068039411949954</v>
+        <v>0.1082923098896526</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1476866605951275</v>
+        <v>0.1487964067525235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>138</v>
@@ -1048,19 +1048,19 @@
         <v>141214</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>120111</v>
+        <v>120193</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>164430</v>
+        <v>166093</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.107525194987285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09145677001327214</v>
+        <v>0.09151946250847265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.125203288351277</v>
+        <v>0.1264694653859001</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>272</v>
@@ -1069,19 +1069,19 @@
         <v>272380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>240152</v>
+        <v>243052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>301585</v>
+        <v>303662</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1161965255019111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1024479242808005</v>
+        <v>0.1036851597124727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.128655199331727</v>
+        <v>0.1295412967253781</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>271388</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>239245</v>
+        <v>242504</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>301220</v>
+        <v>301240</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1604506946778564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1414467834576152</v>
+        <v>0.1433736592752124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1780876110748426</v>
+        <v>0.1780996970785938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -1194,19 +1194,19 @@
         <v>289296</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>258967</v>
+        <v>257109</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>321275</v>
+        <v>321089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.182719938236177</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1635641296824108</v>
+        <v>0.1623908165541869</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.202918519724587</v>
+        <v>0.2028005725361972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>543</v>
@@ -1215,19 +1215,19 @@
         <v>560684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>515370</v>
+        <v>519662</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>606142</v>
+        <v>600961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1712176221730459</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1573801470581949</v>
+        <v>0.1586905417256182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.185099206572984</v>
+        <v>0.1835170618942079</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>455952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420961</v>
+        <v>416373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>493127</v>
+        <v>490651</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2695688615304761</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2488814492005232</v>
+        <v>0.2461687671307119</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2915474528463923</v>
+        <v>0.2900837983100488</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>379</v>
@@ -1265,19 +1265,19 @@
         <v>393029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>356692</v>
+        <v>360841</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>424079</v>
+        <v>430827</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.248238479770574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2252876720470276</v>
+        <v>0.2279084014204115</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2678493909765572</v>
+        <v>0.272111398824016</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>829</v>
@@ -1286,19 +1286,19 @@
         <v>848981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>801753</v>
+        <v>799992</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>901393</v>
+        <v>895782</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2592558631005062</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2448337545363271</v>
+        <v>0.2442958789261546</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2752610913256832</v>
+        <v>0.2735476776590462</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>754402</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>714180</v>
+        <v>712505</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>795677</v>
+        <v>793792</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4460191164717959</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4222390121252108</v>
+        <v>0.4212485443788225</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4704218601731046</v>
+        <v>0.4693072389937444</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>705</v>
@@ -1336,19 +1336,19 @@
         <v>711085</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>672736</v>
+        <v>674603</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>750611</v>
+        <v>754455</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4491233490226382</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4249023236021372</v>
+        <v>0.4260810636511725</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4740881588001222</v>
+        <v>0.4765157986547482</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1439</v>
@@ -1357,19 +1357,19 @@
         <v>1465487</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1402962</v>
+        <v>1412336</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1524775</v>
+        <v>1525303</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4475199778151817</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4284264965200106</v>
+        <v>0.4312892067859704</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4656250516063606</v>
+        <v>0.4657860699592352</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>87186</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69701</v>
+        <v>70954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106182</v>
+        <v>107926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05154652861740727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04120852867679364</v>
+        <v>0.04194932135344638</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06277716332598292</v>
+        <v>0.06380830782883115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -1407,19 +1407,19 @@
         <v>102729</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83136</v>
+        <v>83952</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121925</v>
+        <v>123982</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06488392836082943</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05250883288899962</v>
+        <v>0.05302413611143166</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07700821113173015</v>
+        <v>0.07830745569830909</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>184</v>
@@ -1428,19 +1428,19 @@
         <v>189915</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>162796</v>
+        <v>165028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>219214</v>
+        <v>219069</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05799501060718415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04971335119812661</v>
+        <v>0.05039519932399632</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06694194091061281</v>
+        <v>0.06689775990096705</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>122483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101281</v>
+        <v>101683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146991</v>
+        <v>148664</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07241479870246427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05987927456732417</v>
+        <v>0.06011705817178194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08690453745205187</v>
+        <v>0.08789335068308067</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -1478,19 +1478,19 @@
         <v>87134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70291</v>
+        <v>69191</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>106750</v>
+        <v>106054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05503430460978135</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04439582806786928</v>
+        <v>0.04370115615715718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0674236484596705</v>
+        <v>0.0669840407712234</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -1499,19 +1499,19 @@
         <v>209618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>181211</v>
+        <v>182414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>238455</v>
+        <v>238564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06401152630408208</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05533703523689718</v>
+        <v>0.05570420748957582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07281781757652421</v>
+        <v>0.07285105714201624</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>127414</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>107087</v>
+        <v>108543</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>149092</v>
+        <v>149690</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2310698634277652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1942069579695044</v>
+        <v>0.1968473900567938</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.270385044633451</v>
+        <v>0.2714681577166096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -1624,19 +1624,19 @@
         <v>93064</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75224</v>
+        <v>75780</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110380</v>
+        <v>112358</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1958168063499878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1582803874503267</v>
+        <v>0.1594500461648967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2322510068661965</v>
+        <v>0.2364138772791904</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>204</v>
@@ -1645,19 +1645,19 @@
         <v>220478</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>193412</v>
+        <v>192322</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250575</v>
+        <v>249386</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2147506804337085</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1883876355299259</v>
+        <v>0.187326675482899</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2440655840270377</v>
+        <v>0.242907743056084</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>148006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127725</v>
+        <v>128599</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171855</v>
+        <v>169786</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2684145786311461</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2316348350032971</v>
+        <v>0.23322014526485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.311665630198523</v>
+        <v>0.307914419150171</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -1695,19 +1695,19 @@
         <v>124258</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>106902</v>
+        <v>105924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146256</v>
+        <v>143908</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.261451902888789</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2249336696795657</v>
+        <v>0.2228761085666914</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3077392069590805</v>
+        <v>0.3027988640385606</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>266</v>
@@ -1716,19 +1716,19 @@
         <v>272264</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>245026</v>
+        <v>243603</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>301634</v>
+        <v>300648</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.265191448809607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.238661459899004</v>
+        <v>0.2372755319656981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2937985041381588</v>
+        <v>0.2928381844394808</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>232696</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>209144</v>
+        <v>210764</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>256813</v>
+        <v>256757</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4220033226659174</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3792912961278384</v>
+        <v>0.3822294383701585</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4657406172130222</v>
+        <v>0.4656385846845876</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>186</v>
@@ -1766,19 +1766,19 @@
         <v>195155</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>174258</v>
+        <v>173450</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>218759</v>
+        <v>215805</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4106266609521551</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3666577003138803</v>
+        <v>0.3649583518290547</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4602926203825972</v>
+        <v>0.4540757874259098</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>409</v>
@@ -1787,19 +1787,19 @@
         <v>427851</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>397552</v>
+        <v>395481</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>462740</v>
+        <v>460624</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4167368907658766</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3872253970177286</v>
+        <v>0.3852082261974071</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4507201940074179</v>
+        <v>0.4486588261238382</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>23336</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14415</v>
+        <v>14017</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35818</v>
+        <v>36564</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04232060341229426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.026142856466968</v>
+        <v>0.02542041392638155</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06495712278734542</v>
+        <v>0.06631033778984313</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1837,19 +1837,19 @@
         <v>34291</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23195</v>
+        <v>22800</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47669</v>
+        <v>46687</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07215092345895613</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04880577212258268</v>
+        <v>0.047973735332168</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1003009311124582</v>
+        <v>0.0982345061939381</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -1858,19 +1858,19 @@
         <v>57626</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44066</v>
+        <v>43542</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75538</v>
+        <v>76969</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05612951792823913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04292104034598606</v>
+        <v>0.04241095659223832</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07357612239867448</v>
+        <v>0.07496988307164261</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>19956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12481</v>
+        <v>13058</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30069</v>
+        <v>30811</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03619163186287706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02263392934342931</v>
+        <v>0.02368193037367248</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05453088696531801</v>
+        <v>0.05587775784981095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1908,19 +1908,19 @@
         <v>28494</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19907</v>
+        <v>18746</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41077</v>
+        <v>41105</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.059953706350112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04188710828082114</v>
+        <v>0.03944386123411567</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08642961016257797</v>
+        <v>0.08648911445601112</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -1929,19 +1929,19 @@
         <v>48450</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35841</v>
+        <v>35461</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63764</v>
+        <v>63338</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04719146206256882</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03490974599266616</v>
+        <v>0.03453999970259122</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06210801579703334</v>
+        <v>0.06169295122502007</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>724483</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>677497</v>
+        <v>677667</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>778085</v>
+        <v>769995</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2213075122811612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2069549011124601</v>
+        <v>0.2070066424150565</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2376814546335518</v>
+        <v>0.2352100132424031</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>786</v>
@@ -2054,19 +2054,19 @@
         <v>816577</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>767567</v>
+        <v>770611</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>863299</v>
+        <v>871040</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2421753913149438</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2276403593130411</v>
+        <v>0.2285429834919507</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2560318280965766</v>
+        <v>0.2583277312519254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1498</v>
@@ -2075,19 +2075,19 @@
         <v>1541060</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1474062</v>
+        <v>1472045</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1613087</v>
+        <v>1611913</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2318956245979349</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2218139457833402</v>
+        <v>0.2215104669357088</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2427341591074329</v>
+        <v>0.2425574754911471</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>820108</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>760893</v>
+        <v>772085</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>861300</v>
+        <v>870142</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2505180359397672</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2324297461333462</v>
+        <v>0.235848623401619</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2631010834586212</v>
+        <v>0.2658021746224558</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>784</v>
@@ -2125,19 +2125,19 @@
         <v>807154</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>759379</v>
+        <v>758292</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>861109</v>
+        <v>853661</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.239380802959718</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2252120884450076</v>
+        <v>0.2248895675124819</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2553824110412132</v>
+        <v>0.2531735492723048</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1598</v>
@@ -2146,19 +2146,19 @@
         <v>1627262</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1559752</v>
+        <v>1557974</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1693026</v>
+        <v>1699596</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2448671370870407</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2347084528229199</v>
+        <v>0.2344409286211461</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2547632417842835</v>
+        <v>0.2557518410740228</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>1289055</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1230321</v>
+        <v>1235527</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1342761</v>
+        <v>1345568</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3937672127283456</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3758258725243531</v>
+        <v>0.3774162045444616</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4101729627071936</v>
+        <v>0.4110301977429154</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1288</v>
@@ -2196,19 +2196,19 @@
         <v>1307342</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1254275</v>
+        <v>1253696</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1362900</v>
+        <v>1363949</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3877235113251706</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3719850693871244</v>
+        <v>0.3718136179923971</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4042005476875749</v>
+        <v>0.4045117366271131</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2547</v>
@@ -2217,19 +2217,19 @@
         <v>2596397</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2515851</v>
+        <v>2520027</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2683495</v>
+        <v>2674953</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.390700710897361</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3785803696578031</v>
+        <v>0.3792087727953408</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4038070045586737</v>
+        <v>0.4025216880533961</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>166396</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>143850</v>
+        <v>140179</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>192962</v>
+        <v>192874</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05082881461507417</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0439419357014987</v>
+        <v>0.04282055158519431</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05894419347991647</v>
+        <v>0.05891726963519871</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>180</v>
@@ -2267,19 +2267,19 @@
         <v>183926</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>159619</v>
+        <v>159211</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>210710</v>
+        <v>211674</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05454778614650102</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04733892249639565</v>
+        <v>0.04721779002850112</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06249117570499311</v>
+        <v>0.0627771170405521</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>337</v>
@@ -2288,19 +2288,19 @@
         <v>350322</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>317521</v>
+        <v>310891</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>388350</v>
+        <v>388059</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05271577630456282</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04777991606800655</v>
+        <v>0.04678226727530748</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0584380980915531</v>
+        <v>0.05839436232514673</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>273606</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>242680</v>
+        <v>244523</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>306011</v>
+        <v>309233</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08357842443565186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07413141483703078</v>
+        <v>0.07469434800536628</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09347697305605443</v>
+        <v>0.09446127469385758</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>252</v>
@@ -2338,19 +2338,19 @@
         <v>256842</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>226242</v>
+        <v>227283</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>286847</v>
+        <v>289696</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0761725082536666</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06709761611735426</v>
+        <v>0.06740623652291755</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08507126427638934</v>
+        <v>0.08591621483619143</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>521</v>
@@ -2359,19 +2359,19 @@
         <v>530448</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>486153</v>
+        <v>489820</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>580052</v>
+        <v>577670</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07982075111310061</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07315528524682638</v>
+        <v>0.07370722017964022</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08728505234353333</v>
+        <v>0.08692657557321584</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>431535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>401256</v>
+        <v>402258</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>463262</v>
+        <v>466555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4432004791662054</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4121037997572462</v>
+        <v>0.4131327889288691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4757858317749298</v>
+        <v>0.4791676516782761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>649</v>
@@ -2723,19 +2723,19 @@
         <v>694666</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>657642</v>
+        <v>655835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>732722</v>
+        <v>733162</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5212916564390093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4935079082442038</v>
+        <v>0.4921524634010474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5498497540773646</v>
+        <v>0.5501795796575257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1054</v>
@@ -2744,19 +2744,19 @@
         <v>1126201</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1070925</v>
+        <v>1079167</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1170270</v>
+        <v>1180088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4883224767390272</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4643548977248892</v>
+        <v>0.4679285833983726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5074310380737449</v>
+        <v>0.5116883024569439</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>253648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225384</v>
+        <v>225996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285012</v>
+        <v>280635</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2605055023775791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2314772600468105</v>
+        <v>0.2321055513305604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2927172375577592</v>
+        <v>0.2882220650570935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>299</v>
@@ -2794,19 +2794,19 @@
         <v>318646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285173</v>
+        <v>287682</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>349321</v>
+        <v>353595</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2391184119200318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2139994829871883</v>
+        <v>0.2158828647630922</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2621373452402157</v>
+        <v>0.265344985830569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>539</v>
@@ -2815,19 +2815,19 @@
         <v>572294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>533713</v>
+        <v>529196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>617440</v>
+        <v>616301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2481477908227393</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2314190822800267</v>
+        <v>0.2294601056570962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2677231847129604</v>
+        <v>0.2672291275845635</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>124119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105046</v>
+        <v>105211</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148555</v>
+        <v>146957</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1274744856304755</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1078859755454643</v>
+        <v>0.1080554406569707</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1525710166110802</v>
+        <v>0.1509298592750807</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -2865,19 +2865,19 @@
         <v>123802</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>104426</v>
+        <v>102471</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>146678</v>
+        <v>148809</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09290358681104742</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07836360109621297</v>
+        <v>0.07689645886027319</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1100701424965676</v>
+        <v>0.1116692714473207</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>229</v>
@@ -2886,19 +2886,19 @@
         <v>247921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>217427</v>
+        <v>217798</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>277829</v>
+        <v>279522</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1074990150703235</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09427690551453896</v>
+        <v>0.09443749381825935</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1204669597197645</v>
+        <v>0.1212013791464443</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>18527</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11065</v>
+        <v>11178</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29064</v>
+        <v>29118</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0190274752712262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01136399827429253</v>
+        <v>0.01147991040127951</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02984953996427119</v>
+        <v>0.02990525665072094</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2936,19 +2936,19 @@
         <v>12202</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6752</v>
+        <v>6173</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22226</v>
+        <v>21824</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009156969101625357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005066784779854223</v>
+        <v>0.004632718658983703</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01667913011230123</v>
+        <v>0.01637753222375917</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -2957,19 +2957,19 @@
         <v>30729</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20138</v>
+        <v>19673</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43855</v>
+        <v>43870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01332418110943669</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008731731637809969</v>
+        <v>0.008530212556699947</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01901554623892456</v>
+        <v>0.01902195125588462</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>145849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124252</v>
+        <v>124742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171944</v>
+        <v>172380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1497920575545139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1276105369924178</v>
+        <v>0.1281139582660731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1765923586757559</v>
+        <v>0.1770403931933142</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>169</v>
@@ -3007,19 +3007,19 @@
         <v>183270</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>159478</v>
+        <v>156462</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>211200</v>
+        <v>208294</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1375293757282861</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1196754297382622</v>
+        <v>0.1174121473228747</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1584886806770832</v>
+        <v>0.1563082630648178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>299</v>
@@ -3028,19 +3028,19 @@
         <v>329119</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>294228</v>
+        <v>296107</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>364564</v>
+        <v>363568</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1427065362584732</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1275778545845038</v>
+        <v>0.1283925107862112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1580755431347301</v>
+        <v>0.157643570704399</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>612799</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>573476</v>
+        <v>571855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>656780</v>
+        <v>658882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3129229877858359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2928427228840143</v>
+        <v>0.2920150947672029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3353816523733979</v>
+        <v>0.3364547567881798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>528</v>
@@ -3153,19 +3153,19 @@
         <v>571477</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>531496</v>
+        <v>531972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>611664</v>
+        <v>614751</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3268727987005613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3040045765727215</v>
+        <v>0.3042764408260015</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3498590142564987</v>
+        <v>0.35162471573916</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1099</v>
@@ -3174,19 +3174,19 @@
         <v>1184277</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1125606</v>
+        <v>1128146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1241680</v>
+        <v>1246764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.319502745534358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3036741205895796</v>
+        <v>0.3043593990393987</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3349894599337171</v>
+        <v>0.3363610225114768</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>677492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>631390</v>
+        <v>633569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>719234</v>
+        <v>724364</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3459579681470021</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3224163343179353</v>
+        <v>0.3235291123381026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3672733212566529</v>
+        <v>0.369892846536355</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>542</v>
@@ -3224,19 +3224,19 @@
         <v>578452</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>539980</v>
+        <v>537932</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>621973</v>
+        <v>616998</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3308624200283781</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3088567484664837</v>
+        <v>0.3076854555388274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3557551094317866</v>
+        <v>0.3529098007384497</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1187</v>
@@ -3245,19 +3245,19 @@
         <v>1255944</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1193322</v>
+        <v>1197789</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1313542</v>
+        <v>1312431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3388377963892001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3219430445554358</v>
+        <v>0.3231483062613021</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3543768063669408</v>
+        <v>0.354077216868261</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>417086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>384551</v>
+        <v>382247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>457252</v>
+        <v>455890</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2129827906443172</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1963690740003729</v>
+        <v>0.1951926893678689</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2334933755297187</v>
+        <v>0.2327978706633383</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>364</v>
@@ -3295,19 +3295,19 @@
         <v>390491</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>353917</v>
+        <v>358013</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>425719</v>
+        <v>429593</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2233523582874879</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2024329053598892</v>
+        <v>0.2047757035419621</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2435021620336669</v>
+        <v>0.245717861166254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>768</v>
@@ -3316,19 +3316,19 @@
         <v>807576</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>759984</v>
+        <v>756919</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>862768</v>
+        <v>862924</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2178738421048753</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2050340003859021</v>
+        <v>0.2042070073542548</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2327638658474183</v>
+        <v>0.2328058975759685</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>57268</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43275</v>
+        <v>42336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75023</v>
+        <v>74956</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02924385094749987</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02209841718117385</v>
+        <v>0.02161851240010804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0383102442836789</v>
+        <v>0.03827596022824985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -3366,19 +3366,19 @@
         <v>63683</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48948</v>
+        <v>49153</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80234</v>
+        <v>80490</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03642534976264637</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02799721529789506</v>
+        <v>0.02811454585762854</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04589220044847399</v>
+        <v>0.0460383991543097</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -3387,19 +3387,19 @@
         <v>120951</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100235</v>
+        <v>100677</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145258</v>
+        <v>145497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03263117445774782</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02704222852338697</v>
+        <v>0.02716137171707285</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03918871791191279</v>
+        <v>0.03925323132168494</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>193662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>164830</v>
+        <v>167344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>221405</v>
+        <v>223408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09889240247534496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0841697519940965</v>
+        <v>0.08545358715607945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1130595730204464</v>
+        <v>0.1140823480323877</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -3437,19 +3437,19 @@
         <v>144214</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121339</v>
+        <v>120383</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>169013</v>
+        <v>170747</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08248707322092637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06940353307397272</v>
+        <v>0.06885651107316604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09667156200768227</v>
+        <v>0.0976635975986138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>308</v>
@@ -3458,19 +3458,19 @@
         <v>337875</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>299276</v>
+        <v>302179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>373150</v>
+        <v>378677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09115444151381871</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08074085734310132</v>
+        <v>0.08152402013445534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1006712438095566</v>
+        <v>0.1021621338043788</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>137716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118304</v>
+        <v>118789</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157958</v>
+        <v>159639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2862044858840521</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2458622533871938</v>
+        <v>0.2468692743583555</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3282723666951082</v>
+        <v>0.3317655663070035</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -3583,19 +3583,19 @@
         <v>161702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140004</v>
+        <v>140315</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>183635</v>
+        <v>184957</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3555020807921094</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3077990893488682</v>
+        <v>0.3084818413312825</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4037226736849095</v>
+        <v>0.4066276441113925</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -3604,19 +3604,19 @@
         <v>299418</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>268978</v>
+        <v>270784</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>329425</v>
+        <v>332290</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3198787818293204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2873578052256094</v>
+        <v>0.2892877545832753</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3519362594325947</v>
+        <v>0.354996351090194</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>190693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168669</v>
+        <v>169400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213034</v>
+        <v>213515</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3963014995219757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3505314666225192</v>
+        <v>0.3520513957683857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4427313853187133</v>
+        <v>0.44373168586805</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>149</v>
@@ -3654,19 +3654,19 @@
         <v>164422</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>143339</v>
+        <v>143225</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>186677</v>
+        <v>186328</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3614823745207095</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3151315008035308</v>
+        <v>0.3148803397301939</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4104093278607256</v>
+        <v>0.4096426158299197</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>328</v>
@@ -3675,19 +3675,19 @@
         <v>355115</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>322621</v>
+        <v>325209</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>385157</v>
+        <v>385520</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.379381583016885</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3446666085272103</v>
+        <v>0.3474319391671667</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.411476380201072</v>
+        <v>0.4118643604873755</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>98647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81179</v>
+        <v>80609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117636</v>
+        <v>118686</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2050107178636416</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1687070092995373</v>
+        <v>0.1675232596973461</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2444736650542306</v>
+        <v>0.2466549840784705</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>77</v>
@@ -3725,19 +3725,19 @@
         <v>86982</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69967</v>
+        <v>69267</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>106865</v>
+        <v>105267</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1912300292991565</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1538228422898771</v>
+        <v>0.1522844315354826</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2349439003509824</v>
+        <v>0.2314291346702399</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>169</v>
@@ -3746,19 +3746,19 @@
         <v>185629</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>163041</v>
+        <v>158436</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>214964</v>
+        <v>212237</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1983141653257686</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1741822369622071</v>
+        <v>0.1692623638111781</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2296531839670737</v>
+        <v>0.2267404803354612</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>11864</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5576</v>
+        <v>6189</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20528</v>
+        <v>21209</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02465570401816357</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01158886088773854</v>
+        <v>0.01286178511663956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04266082019921486</v>
+        <v>0.04407762840350975</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -3796,19 +3796,19 @@
         <v>16183</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9490</v>
+        <v>9288</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27183</v>
+        <v>26149</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03557938120300609</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02086332656181008</v>
+        <v>0.02041910419453848</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05976224626412958</v>
+        <v>0.05748963553386918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -3817,19 +3817,19 @@
         <v>28047</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17430</v>
+        <v>19474</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41008</v>
+        <v>43036</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02996392775696741</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0186215658765421</v>
+        <v>0.02080493423139066</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04381012666839014</v>
+        <v>0.04597690281106293</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>42261</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29330</v>
+        <v>29984</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56541</v>
+        <v>57586</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08782759271216704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06095458193850378</v>
+        <v>0.06231301504146097</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1175056361713029</v>
+        <v>0.1196770490185325</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -3867,19 +3867,19 @@
         <v>25566</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17210</v>
+        <v>16829</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38481</v>
+        <v>37020</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05620613418501841</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03783633193598408</v>
+        <v>0.03699819830672071</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08460096911043115</v>
+        <v>0.08138838969128878</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -3888,19 +3888,19 @@
         <v>67827</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51746</v>
+        <v>51616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87434</v>
+        <v>85211</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07246154207105855</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05528224179841579</v>
+        <v>0.05514295575351319</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09340864954760683</v>
+        <v>0.09103345991433663</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>1182050</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1124729</v>
+        <v>1130872</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1235016</v>
+        <v>1240089</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3463206646914342</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3295264128993143</v>
+        <v>0.3313261804074376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3618387685601535</v>
+        <v>0.3633250221546602</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1322</v>
@@ -4013,19 +4013,19 @@
         <v>1427846</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1369297</v>
+        <v>1369589</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1486176</v>
+        <v>1494932</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4038300047268056</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3872709614717949</v>
+        <v>0.3873537094374762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4203273984602201</v>
+        <v>0.4228036952234728</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2419</v>
@@ -4034,19 +4034,19 @@
         <v>2609895</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2525643</v>
+        <v>2532448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2696701</v>
+        <v>2695141</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3755826210026506</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3634581057040374</v>
+        <v>0.3644374070019187</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3880745858918822</v>
+        <v>0.387850055401917</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>1121834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1065254</v>
+        <v>1067327</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1181837</v>
+        <v>1181369</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.328678183515751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3121013731581895</v>
+        <v>0.3127087615428691</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.346258160060172</v>
+        <v>0.3461210382672113</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>990</v>
@@ -4084,19 +4084,19 @@
         <v>1061521</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>999463</v>
+        <v>1002361</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1114367</v>
+        <v>1116691</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3002242514883054</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2826729040378763</v>
+        <v>0.2834925063218428</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3151704761332192</v>
+        <v>0.3158278004405898</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2054</v>
@@ -4105,19 +4105,19 @@
         <v>2183354</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2102967</v>
+        <v>2100856</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2258311</v>
+        <v>2262992</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3142002271462756</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3026319717086494</v>
+        <v>0.3023281755042102</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3249871107328381</v>
+        <v>0.3256607013638921</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>639852</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>594357</v>
+        <v>593273</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>692558</v>
+        <v>688106</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1874658588008158</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.174136576671497</v>
+        <v>0.1738188426617686</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2029076501910991</v>
+        <v>0.201603504563062</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>555</v>
@@ -4155,19 +4155,19 @@
         <v>601275</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>557278</v>
+        <v>556826</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>649669</v>
+        <v>651080</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1700553747459712</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1576120456565414</v>
+        <v>0.1574840801983067</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1837423223338761</v>
+        <v>0.18414155748132</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1166</v>
@@ -4176,19 +4176,19 @@
         <v>1241127</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1177013</v>
+        <v>1176162</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1303118</v>
+        <v>1302068</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1786070399818789</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1693805747364522</v>
+        <v>0.1692581790693693</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1875279650605454</v>
+        <v>0.187376858572227</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>87659</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70990</v>
+        <v>71325</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109848</v>
+        <v>108310</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02568258679194975</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02079882152355514</v>
+        <v>0.02089707886991966</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03218364118707102</v>
+        <v>0.03173295687544946</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -4226,19 +4226,19 @@
         <v>92069</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72606</v>
+        <v>73797</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110179</v>
+        <v>112490</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02603938447906949</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0205348724854296</v>
+        <v>0.02087168291426636</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03116139817033613</v>
+        <v>0.0318149085785227</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>168</v>
@@ -4247,19 +4247,19 @@
         <v>179728</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>152894</v>
+        <v>152452</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>205236</v>
+        <v>207507</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0258641329256042</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0220025642458515</v>
+        <v>0.02193897102006825</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02953486466291289</v>
+        <v>0.02986179254055921</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>381772</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>344095</v>
+        <v>343521</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>419797</v>
+        <v>425325</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1118527062000493</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.100814053431661</v>
+        <v>0.1006459438823518</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.122993461933124</v>
+        <v>0.1246130673535685</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>325</v>
@@ -4297,19 +4297,19 @@
         <v>353049</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>315370</v>
+        <v>316679</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>389173</v>
+        <v>392686</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09985098455984819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08919444171521949</v>
+        <v>0.08956475084243888</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1100676885617412</v>
+        <v>0.1110613910356058</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>666</v>
@@ -4318,19 +4318,19 @@
         <v>734821</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>681963</v>
+        <v>683619</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>786973</v>
+        <v>783903</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1057459789435908</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09813939016603959</v>
+        <v>0.09837760014327784</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1132510308240092</v>
+        <v>0.1128092370931633</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>260628</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>235514</v>
+        <v>237380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>285969</v>
+        <v>288488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3464101312769551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3130300266532414</v>
+        <v>0.3155099969079326</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3800910096210545</v>
+        <v>0.3834390327328342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>316</v>
@@ -4682,19 +4682,19 @@
         <v>362106</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>331949</v>
+        <v>329020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>393523</v>
+        <v>394426</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3649356744554662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3345423259556884</v>
+        <v>0.3315903823728965</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3965980469701919</v>
+        <v>0.397507648411765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>580</v>
@@ -4703,19 +4703,19 @@
         <v>622735</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>585268</v>
+        <v>581100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>666162</v>
+        <v>666282</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3569465003631467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.335470834394583</v>
+        <v>0.3330816785195587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3818386159011575</v>
+        <v>0.3819077362294325</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>265723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>240013</v>
+        <v>241481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290436</v>
+        <v>290437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3531811325984991</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3190096145481792</v>
+        <v>0.3209611992446305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.386029259741811</v>
+        <v>0.3860294098384832</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>311</v>
@@ -4753,19 +4753,19 @@
         <v>341360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309302</v>
+        <v>310034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>370825</v>
+        <v>373246</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.344027046703843</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3117186262845966</v>
+        <v>0.3124568919167938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3737223392685169</v>
+        <v>0.3761625640442241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>578</v>
@@ -4774,19 +4774,19 @@
         <v>607082</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>567680</v>
+        <v>566634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>647520</v>
+        <v>649339</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3479747628471022</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3253893829672971</v>
+        <v>0.324789970185127</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3711531721901068</v>
+        <v>0.3721959398207481</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>100584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>82624</v>
+        <v>83358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118532</v>
+        <v>119224</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1336896566372802</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1098188553946779</v>
+        <v>0.1107939728420752</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1575454162531454</v>
+        <v>0.1584641492487203</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>127</v>
@@ -4824,19 +4824,19 @@
         <v>134678</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111414</v>
+        <v>110869</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>154977</v>
+        <v>155974</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.135730501427658</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1122846784797062</v>
+        <v>0.1117355698309634</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1561883148216737</v>
+        <v>0.1571923601583764</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>229</v>
@@ -4845,19 +4845,19 @@
         <v>235262</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>207137</v>
+        <v>205295</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>266394</v>
+        <v>266844</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1348503834106789</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1187291204865586</v>
+        <v>0.1176736272760906</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1526950431502087</v>
+        <v>0.1529527540250306</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>20218</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12850</v>
+        <v>12668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29868</v>
+        <v>29636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02687224011220197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01707952965127999</v>
+        <v>0.01683804037680566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03969830448820646</v>
+        <v>0.03939072855625621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4895,19 +4895,19 @@
         <v>12815</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7011</v>
+        <v>7359</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21969</v>
+        <v>21153</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01291480767545667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007066179913287711</v>
+        <v>0.007416769792548173</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02214075502769334</v>
+        <v>0.02131800636251652</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -4916,19 +4916,19 @@
         <v>33033</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23788</v>
+        <v>23285</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45386</v>
+        <v>45298</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01893397572599406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01363504873172799</v>
+        <v>0.0133465832912715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02601506650623226</v>
+        <v>0.02596424114373915</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>105216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88467</v>
+        <v>86338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>123920</v>
+        <v>125276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1398468393750635</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1175851347286351</v>
+        <v>0.1147552216418749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1647064708985055</v>
+        <v>0.1665086922929691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>123</v>
@@ -4966,19 +4966,19 @@
         <v>141288</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>121613</v>
+        <v>121055</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168718</v>
+        <v>166343</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1423919697375761</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1225635775174967</v>
+        <v>0.1220012905228847</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1700365330500412</v>
+        <v>0.167643121344258</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>229</v>
@@ -4987,19 +4987,19 @@
         <v>246504</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>217144</v>
+        <v>218476</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>277542</v>
+        <v>276297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.141294377653078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1244654197916103</v>
+        <v>0.1252285309891232</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1590846654257956</v>
+        <v>0.1583713962544949</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>663176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>625047</v>
+        <v>624135</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>709696</v>
+        <v>709088</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3209798917696096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3025249858622979</v>
+        <v>0.3020839432257115</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3434957290414103</v>
+        <v>0.3432012502686502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>613</v>
@@ -5112,19 +5112,19 @@
         <v>649423</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>610674</v>
+        <v>608947</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>694220</v>
+        <v>691947</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3277269873828416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3081721349252068</v>
+        <v>0.3073009818736019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3503332380196458</v>
+        <v>0.3491862609211044</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1235</v>
@@ -5133,19 +5133,19 @@
         <v>1312600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1249595</v>
+        <v>1249807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1372778</v>
+        <v>1369594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3242830135556632</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3087175049849742</v>
+        <v>0.3087698678921016</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.339150184171418</v>
+        <v>0.3383636632975719</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>740624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>696997</v>
+        <v>695555</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>785531</v>
+        <v>784375</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3584651475624077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3373491926523195</v>
+        <v>0.3366514637963885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3802001061635103</v>
+        <v>0.3796406266346621</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>716</v>
@@ -5183,19 +5183,19 @@
         <v>741200</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>695578</v>
+        <v>697131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>785867</v>
+        <v>784099</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3740412110588835</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3510187900960498</v>
+        <v>0.3518020308424604</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3965824317523505</v>
+        <v>0.3956898439400068</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1418</v>
@@ -5204,19 +5204,19 @@
         <v>1481824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1413653</v>
+        <v>1419903</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1540300</v>
+        <v>1545778</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3660905967371999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3492485986766601</v>
+        <v>0.3507926775709837</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3805373716210691</v>
+        <v>0.3818906490757927</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>435028</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>398926</v>
+        <v>399376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>473562</v>
+        <v>476756</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2105551830052319</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1930816267014235</v>
+        <v>0.1932994017399905</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2292059321872985</v>
+        <v>0.2307518694901268</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>408</v>
@@ -5254,19 +5254,19 @@
         <v>413115</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>376899</v>
+        <v>376107</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>448129</v>
+        <v>450462</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2084754818975093</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1901991927499882</v>
+        <v>0.1897996564993925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2261451195091296</v>
+        <v>0.2273225912391153</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>816</v>
@@ -5275,19 +5275,19 @@
         <v>848143</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>797716</v>
+        <v>795942</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>901658</v>
+        <v>898251</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2095370403211522</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1970790069314207</v>
+        <v>0.1966406740441664</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2227581788837146</v>
+        <v>0.2219164625861894</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>59894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44768</v>
+        <v>45254</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76668</v>
+        <v>76637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02898910822457348</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02166803317499785</v>
+        <v>0.02190291587919241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03710775812938838</v>
+        <v>0.03709273123121934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -5325,19 +5325,19 @@
         <v>47061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33979</v>
+        <v>34206</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60823</v>
+        <v>62707</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02374906217900755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01714740335893625</v>
+        <v>0.01726157650803084</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03069413282227571</v>
+        <v>0.03164486024056261</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -5346,19 +5346,19 @@
         <v>106955</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87034</v>
+        <v>86827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130008</v>
+        <v>129325</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0264237806754739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02150201774827139</v>
+        <v>0.02145091974915165</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03211894437080764</v>
+        <v>0.03195022536948477</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>167376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143517</v>
+        <v>143893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>193527</v>
+        <v>194570</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08101066943817722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06946283467634222</v>
+        <v>0.06964481542810796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09366806203258365</v>
+        <v>0.09417275607154077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -5396,19 +5396,19 @@
         <v>130800</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108084</v>
+        <v>108030</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>154646</v>
+        <v>154277</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06600725748175805</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05454383800092703</v>
+        <v>0.05451654861524209</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07804107219726251</v>
+        <v>0.07785480402107831</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>274</v>
@@ -5417,19 +5417,19 @@
         <v>298176</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>264890</v>
+        <v>264548</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>333287</v>
+        <v>335515</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07366556871051075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06544218490237054</v>
+        <v>0.06535753240661969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08233988680600299</v>
+        <v>0.08289042078215698</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>196476</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>175076</v>
+        <v>172807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>221573</v>
+        <v>218464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3605399094678438</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.321270159452352</v>
+        <v>0.3171077207500088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4065944492400388</v>
+        <v>0.4008894181173142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>186</v>
@@ -5542,19 +5542,19 @@
         <v>198953</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176565</v>
+        <v>176181</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224543</v>
+        <v>222437</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3622993822343912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3215305381386883</v>
+        <v>0.3208301132037618</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4088998973636335</v>
+        <v>0.4050644142153303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>365</v>
@@ -5563,19 +5563,19 @@
         <v>395429</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>360511</v>
+        <v>364306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>428750</v>
+        <v>430011</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3614230171617602</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3295078439922946</v>
+        <v>0.3329765048841112</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3918790367118343</v>
+        <v>0.393031719522732</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>209018</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186260</v>
+        <v>185230</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>233841</v>
+        <v>232660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3835553715356759</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3417931926850545</v>
+        <v>0.3399044703913157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4291075086341163</v>
+        <v>0.426939813911377</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>196</v>
@@ -5613,19 +5613,19 @@
         <v>202143</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>181095</v>
+        <v>180052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>227254</v>
+        <v>227287</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3681077530880886</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3297790138980939</v>
+        <v>0.3278800583673175</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4138353823424911</v>
+        <v>0.4138961649113921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>390</v>
@@ -5634,19 +5634,19 @@
         <v>411160</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>380148</v>
+        <v>379083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>446022</v>
+        <v>446465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3758019632629706</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3474566189933701</v>
+        <v>0.3464833430018195</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4076659487235517</v>
+        <v>0.4080701093585878</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>101975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84298</v>
+        <v>83201</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>121006</v>
+        <v>121975</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1871275614478606</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1546898853337517</v>
+        <v>0.152677740657005</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2220499245139059</v>
+        <v>0.2238281590636354</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>104</v>
@@ -5684,19 +5684,19 @@
         <v>105445</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88149</v>
+        <v>86779</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>123753</v>
+        <v>124893</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1920192136409532</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1605225287070251</v>
+        <v>0.1580275463461251</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2253576171316951</v>
+        <v>0.2274331840297846</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>197</v>
@@ -5705,19 +5705,19 @@
         <v>207420</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>181113</v>
+        <v>181948</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>234987</v>
+        <v>237649</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1895827603971229</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.165537778187987</v>
+        <v>0.1663007643317254</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2147789614725287</v>
+        <v>0.2172117402732875</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>12988</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6934</v>
+        <v>7082</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22232</v>
+        <v>23185</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02383428617107929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01272340692014676</v>
+        <v>0.0129949304621823</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04079639444579582</v>
+        <v>0.04254458689111681</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -5755,19 +5755,19 @@
         <v>12825</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7232</v>
+        <v>7636</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21729</v>
+        <v>21554</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02335381931218096</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01316997935774555</v>
+        <v>0.01390555567488893</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03956888033343044</v>
+        <v>0.03925085600442</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -5776,19 +5776,19 @@
         <v>25813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17198</v>
+        <v>17482</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37214</v>
+        <v>38634</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02359313212321213</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01571874699061884</v>
+        <v>0.01597888652436295</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03401334359018258</v>
+        <v>0.03531182491242815</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>24492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16028</v>
+        <v>15503</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36965</v>
+        <v>36299</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04494287137754045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02941235697521067</v>
+        <v>0.02844945032267682</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06783221040571055</v>
+        <v>0.06660918560534314</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -5826,19 +5826,19 @@
         <v>29774</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19942</v>
+        <v>19854</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42648</v>
+        <v>42982</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05421983172438603</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03631444441028973</v>
+        <v>0.03615512371183344</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07766248950805738</v>
+        <v>0.07827219738264338</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -5847,19 +5847,19 @@
         <v>54266</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>40577</v>
+        <v>41222</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>71213</v>
+        <v>72793</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04959912705493423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03708708382177781</v>
+        <v>0.03767665607151854</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06508873217673843</v>
+        <v>0.06653261037124084</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>1120280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1062973</v>
+        <v>1067565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1174662</v>
+        <v>1179470</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3330780290275066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3160396654660317</v>
+        <v>0.317405210960969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3492468071342623</v>
+        <v>0.3506763908756206</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1115</v>
@@ -5972,19 +5972,19 @@
         <v>1210483</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1149453</v>
+        <v>1151769</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1263102</v>
+        <v>1265081</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3435957150132017</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.326272355905323</v>
+        <v>0.3269297829971239</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3585314748278735</v>
+        <v>0.3590931561594027</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2180</v>
@@ -5993,19 +5993,19 @@
         <v>2330763</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2252383</v>
+        <v>2251584</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2404649</v>
+        <v>2406938</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.338458729863562</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3270767810540768</v>
+        <v>0.3269607641987635</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3491879709002608</v>
+        <v>0.3495203463874095</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>1215364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1163725</v>
+        <v>1158562</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1273100</v>
+        <v>1270470</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3613483265461265</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3459950676999054</v>
+        <v>0.3444601367313496</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3785139592291959</v>
+        <v>0.3777320886956533</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1223</v>
@@ -6043,19 +6043,19 @@
         <v>1284703</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1226056</v>
+        <v>1232012</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1344126</v>
+        <v>1352339</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3646628685987697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3480159161912179</v>
+        <v>0.3497065793996084</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3815303006705021</v>
+        <v>0.3838614455605723</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2386</v>
@@ -6064,19 +6064,19 @@
         <v>2500067</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2420605</v>
+        <v>2418206</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2578941</v>
+        <v>2587754</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3630439998356746</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3515049733750472</v>
+        <v>0.3511566582227257</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3744974764560296</v>
+        <v>0.3757772591718174</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>637586</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>591971</v>
+        <v>591262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>684381</v>
+        <v>685382</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1895651899480812</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1760030330936921</v>
+        <v>0.1757922231363107</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2034780002908467</v>
+        <v>0.2037754889889649</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>639</v>
@@ -6114,19 +6114,19 @@
         <v>653239</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>611131</v>
+        <v>610246</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>703180</v>
+        <v>701331</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.185421800268547</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1734696312954548</v>
+        <v>0.1732184345849492</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1995978078408924</v>
+        <v>0.1990727650453245</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1242</v>
@@ -6135,19 +6135,19 @@
         <v>1290825</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1226078</v>
+        <v>1225733</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1358438</v>
+        <v>1356112</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1874454898217326</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1780432541382527</v>
+        <v>0.1779932081971605</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1972638548047764</v>
+        <v>0.1969260435559979</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>93101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>75297</v>
+        <v>74732</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112694</v>
+        <v>113358</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02768038676089109</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02238695352449875</v>
+        <v>0.02221897720373036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03350573791358924</v>
+        <v>0.03370314861080612</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>71</v>
@@ -6185,19 +6185,19 @@
         <v>72700</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55672</v>
+        <v>57054</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90859</v>
+        <v>91964</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02063599222888179</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01580236404563239</v>
+        <v>0.01619466423876271</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02579046755395819</v>
+        <v>0.02610406177706271</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>160</v>
@@ -6206,19 +6206,19 @@
         <v>165801</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>139337</v>
+        <v>141842</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>191185</v>
+        <v>192449</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02407657318446003</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02023360208591261</v>
+        <v>0.02059740476939367</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02776263701782835</v>
+        <v>0.02794620076219074</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>297084</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>266596</v>
+        <v>264807</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>335043</v>
+        <v>334495</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08832806771739458</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07926361264243841</v>
+        <v>0.07873171549200148</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09961395320260687</v>
+        <v>0.09945088087603697</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>270</v>
@@ -6256,19 +6256,19 @@
         <v>301862</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>267219</v>
+        <v>264262</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>334892</v>
+        <v>337954</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08568362389059983</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07585001119107486</v>
+        <v>0.0750108563932279</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09505899336601585</v>
+        <v>0.09592832899255269</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>551</v>
@@ -6277,19 +6277,19 @@
         <v>598946</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>553161</v>
+        <v>552153</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>651021</v>
+        <v>647946</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08697520729457071</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08032662298011933</v>
+        <v>0.08018013772628399</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09453713466745414</v>
+        <v>0.09409062410332368</v>
       </c>
     </row>
     <row r="27">
